--- a/src/test/java/Test_Data/BD.xlsx
+++ b/src/test/java/Test_Data/BD.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\New path\Hotel_Booking_AG\src\test\java\Test_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{295783EF-33E4-40EE-AA36-D79B9C03D280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B520DCD3-6228-473F-BCE8-8C47D67DA5A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C1C993AB-64D8-462F-8AA4-452A86313DC8}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
   <si>
     <t>search_place</t>
   </si>
@@ -85,9 +85,6 @@
   </si>
   <si>
     <t>Beverley</t>
-  </si>
-  <si>
-    <t>Beverley Hills</t>
   </si>
   <si>
     <t>August 2025</t>
@@ -489,7 +486,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -593,10 +590,10 @@
         <v>18</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3" s="2">
         <v>26</v>
@@ -628,13 +625,13 @@
         <v>19</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4" s="2">
         <v>11</v>
@@ -655,7 +652,7 @@
         <v>16</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L4" s="2">
         <v>3</v>
@@ -663,16 +660,16 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="E5" s="2">
         <v>7</v>
@@ -687,13 +684,13 @@
         <v>3</v>
       </c>
       <c r="I5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="L5" s="2">
         <v>4</v>
